--- a/INTLINE/data/134/DEUSTATIS/old/Retail price index.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Retail price index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="68">
   <si>
     <t>Index of retail prices: Germany, months, value added tax,
 economic activities</t>
@@ -124,6 +124,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
@@ -214,7 +217,7 @@
     <t>Before 2005, including retail sale of automotive fuel.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:17:07</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:54:02</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1519">
+  <cellXfs count="1567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -2327,8 +2330,104 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -5331,6 +5430,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -5341,6 +5488,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -6872,2080 +7067,2130 @@
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="true">
-      <c r="A5" t="s" s="771">
+      <c r="A5" t="s" s="795">
         <v>4</v>
       </c>
-      <c r="B5" s="772"/>
-      <c r="C5" t="s" s="773">
+      <c r="B5" s="796"/>
+      <c r="C5" t="s" s="797">
         <v>5</v>
       </c>
-      <c r="D5" s="774"/>
-      <c r="E5" s="775"/>
-      <c r="F5" s="776"/>
-      <c r="G5" s="777"/>
-      <c r="H5" s="778"/>
-      <c r="I5" s="779"/>
-      <c r="J5" s="780"/>
-      <c r="K5" s="781"/>
-      <c r="L5" s="782"/>
-      <c r="M5" s="783"/>
-      <c r="N5" s="784"/>
-      <c r="O5" t="s" s="785">
+      <c r="D5" s="798"/>
+      <c r="E5" s="799"/>
+      <c r="F5" s="800"/>
+      <c r="G5" s="801"/>
+      <c r="H5" s="802"/>
+      <c r="I5" s="803"/>
+      <c r="J5" s="804"/>
+      <c r="K5" s="805"/>
+      <c r="L5" s="806"/>
+      <c r="M5" s="807"/>
+      <c r="N5" s="808"/>
+      <c r="O5" t="s" s="809">
         <v>6</v>
       </c>
-      <c r="P5" s="786"/>
-      <c r="Q5" s="787"/>
-      <c r="R5" s="788"/>
-      <c r="S5" s="789"/>
-      <c r="T5" s="790"/>
-      <c r="U5" s="791"/>
-      <c r="V5" s="792"/>
-      <c r="W5" s="793"/>
-      <c r="X5" s="794"/>
-      <c r="Y5" s="795"/>
-      <c r="Z5" s="796"/>
-      <c r="AA5" t="s" s="797">
+      <c r="P5" s="810"/>
+      <c r="Q5" s="811"/>
+      <c r="R5" s="812"/>
+      <c r="S5" s="813"/>
+      <c r="T5" s="814"/>
+      <c r="U5" s="815"/>
+      <c r="V5" s="816"/>
+      <c r="W5" s="817"/>
+      <c r="X5" s="818"/>
+      <c r="Y5" s="819"/>
+      <c r="Z5" s="820"/>
+      <c r="AA5" t="s" s="821">
         <v>7</v>
       </c>
-      <c r="AB5" s="798"/>
-      <c r="AC5" s="799"/>
-      <c r="AD5" s="800"/>
-      <c r="AE5" s="801"/>
-      <c r="AF5" s="802"/>
-      <c r="AG5" s="803"/>
-      <c r="AH5" s="804"/>
-      <c r="AI5" s="805"/>
-      <c r="AJ5" s="806"/>
-      <c r="AK5" s="807"/>
-      <c r="AL5" s="808"/>
-      <c r="AM5" t="s" s="809">
+      <c r="AB5" s="822"/>
+      <c r="AC5" s="823"/>
+      <c r="AD5" s="824"/>
+      <c r="AE5" s="825"/>
+      <c r="AF5" s="826"/>
+      <c r="AG5" s="827"/>
+      <c r="AH5" s="828"/>
+      <c r="AI5" s="829"/>
+      <c r="AJ5" s="830"/>
+      <c r="AK5" s="831"/>
+      <c r="AL5" s="832"/>
+      <c r="AM5" t="s" s="833">
         <v>8</v>
       </c>
-      <c r="AN5" s="810"/>
-      <c r="AO5" s="811"/>
-      <c r="AP5" s="812"/>
-      <c r="AQ5" s="813"/>
-      <c r="AR5" s="814"/>
-      <c r="AS5" s="815"/>
-      <c r="AT5" s="816"/>
-      <c r="AU5" s="817"/>
-      <c r="AV5" s="818"/>
-      <c r="AW5" s="819"/>
-      <c r="AX5" s="820"/>
-      <c r="AY5" t="s" s="821">
+      <c r="AN5" s="834"/>
+      <c r="AO5" s="835"/>
+      <c r="AP5" s="836"/>
+      <c r="AQ5" s="837"/>
+      <c r="AR5" s="838"/>
+      <c r="AS5" s="839"/>
+      <c r="AT5" s="840"/>
+      <c r="AU5" s="841"/>
+      <c r="AV5" s="842"/>
+      <c r="AW5" s="843"/>
+      <c r="AX5" s="844"/>
+      <c r="AY5" t="s" s="845">
         <v>9</v>
       </c>
-      <c r="AZ5" s="822"/>
-      <c r="BA5" s="823"/>
-      <c r="BB5" s="824"/>
-      <c r="BC5" s="825"/>
-      <c r="BD5" s="826"/>
-      <c r="BE5" s="827"/>
-      <c r="BF5" s="828"/>
-      <c r="BG5" s="829"/>
-      <c r="BH5" s="830"/>
-      <c r="BI5" s="831"/>
-      <c r="BJ5" s="832"/>
-      <c r="BK5" t="s" s="833">
+      <c r="AZ5" s="846"/>
+      <c r="BA5" s="847"/>
+      <c r="BB5" s="848"/>
+      <c r="BC5" s="849"/>
+      <c r="BD5" s="850"/>
+      <c r="BE5" s="851"/>
+      <c r="BF5" s="852"/>
+      <c r="BG5" s="853"/>
+      <c r="BH5" s="854"/>
+      <c r="BI5" s="855"/>
+      <c r="BJ5" s="856"/>
+      <c r="BK5" t="s" s="857">
         <v>10</v>
       </c>
-      <c r="BL5" s="834"/>
-      <c r="BM5" s="835"/>
-      <c r="BN5" s="836"/>
-      <c r="BO5" s="837"/>
-      <c r="BP5" s="838"/>
-      <c r="BQ5" s="839"/>
-      <c r="BR5" s="840"/>
-      <c r="BS5" s="841"/>
-      <c r="BT5" s="842"/>
-      <c r="BU5" s="843"/>
-      <c r="BV5" s="844"/>
-      <c r="BW5" t="s" s="845">
+      <c r="BL5" s="858"/>
+      <c r="BM5" s="859"/>
+      <c r="BN5" s="860"/>
+      <c r="BO5" s="861"/>
+      <c r="BP5" s="862"/>
+      <c r="BQ5" s="863"/>
+      <c r="BR5" s="864"/>
+      <c r="BS5" s="865"/>
+      <c r="BT5" s="866"/>
+      <c r="BU5" s="867"/>
+      <c r="BV5" s="868"/>
+      <c r="BW5" t="s" s="869">
         <v>11</v>
       </c>
-      <c r="BX5" s="846"/>
-      <c r="BY5" s="847"/>
-      <c r="BZ5" s="848"/>
-      <c r="CA5" s="849"/>
-      <c r="CB5" s="850"/>
-      <c r="CC5" s="851"/>
-      <c r="CD5" s="852"/>
-      <c r="CE5" s="853"/>
-      <c r="CF5" s="854"/>
-      <c r="CG5" s="855"/>
-      <c r="CH5" s="856"/>
-      <c r="CI5" t="s" s="857">
+      <c r="BX5" s="870"/>
+      <c r="BY5" s="871"/>
+      <c r="BZ5" s="872"/>
+      <c r="CA5" s="873"/>
+      <c r="CB5" s="874"/>
+      <c r="CC5" s="875"/>
+      <c r="CD5" s="876"/>
+      <c r="CE5" s="877"/>
+      <c r="CF5" s="878"/>
+      <c r="CG5" s="879"/>
+      <c r="CH5" s="880"/>
+      <c r="CI5" t="s" s="881">
         <v>12</v>
       </c>
-      <c r="CJ5" s="858"/>
-      <c r="CK5" s="859"/>
-      <c r="CL5" s="860"/>
-      <c r="CM5" s="861"/>
-      <c r="CN5" s="862"/>
-      <c r="CO5" s="863"/>
-      <c r="CP5" s="864"/>
-      <c r="CQ5" s="865"/>
-      <c r="CR5" s="866"/>
-      <c r="CS5" s="867"/>
-      <c r="CT5" s="868"/>
-      <c r="CU5" t="s" s="869">
+      <c r="CJ5" s="882"/>
+      <c r="CK5" s="883"/>
+      <c r="CL5" s="884"/>
+      <c r="CM5" s="885"/>
+      <c r="CN5" s="886"/>
+      <c r="CO5" s="887"/>
+      <c r="CP5" s="888"/>
+      <c r="CQ5" s="889"/>
+      <c r="CR5" s="890"/>
+      <c r="CS5" s="891"/>
+      <c r="CT5" s="892"/>
+      <c r="CU5" t="s" s="893">
         <v>13</v>
       </c>
-      <c r="CV5" s="870"/>
-      <c r="CW5" s="871"/>
-      <c r="CX5" s="872"/>
-      <c r="CY5" s="873"/>
-      <c r="CZ5" s="874"/>
-      <c r="DA5" s="875"/>
-      <c r="DB5" s="876"/>
-      <c r="DC5" s="877"/>
-      <c r="DD5" s="878"/>
-      <c r="DE5" s="879"/>
-      <c r="DF5" s="880"/>
-      <c r="DG5" t="s" s="881">
+      <c r="CV5" s="894"/>
+      <c r="CW5" s="895"/>
+      <c r="CX5" s="896"/>
+      <c r="CY5" s="897"/>
+      <c r="CZ5" s="898"/>
+      <c r="DA5" s="899"/>
+      <c r="DB5" s="900"/>
+      <c r="DC5" s="901"/>
+      <c r="DD5" s="902"/>
+      <c r="DE5" s="903"/>
+      <c r="DF5" s="904"/>
+      <c r="DG5" t="s" s="905">
         <v>14</v>
       </c>
-      <c r="DH5" s="882"/>
-      <c r="DI5" s="883"/>
-      <c r="DJ5" s="884"/>
-      <c r="DK5" s="885"/>
-      <c r="DL5" s="886"/>
-      <c r="DM5" s="887"/>
-      <c r="DN5" s="888"/>
-      <c r="DO5" s="889"/>
-      <c r="DP5" s="890"/>
-      <c r="DQ5" s="891"/>
-      <c r="DR5" s="892"/>
-      <c r="DS5" t="s" s="893">
+      <c r="DH5" s="906"/>
+      <c r="DI5" s="907"/>
+      <c r="DJ5" s="908"/>
+      <c r="DK5" s="909"/>
+      <c r="DL5" s="910"/>
+      <c r="DM5" s="911"/>
+      <c r="DN5" s="912"/>
+      <c r="DO5" s="913"/>
+      <c r="DP5" s="914"/>
+      <c r="DQ5" s="915"/>
+      <c r="DR5" s="916"/>
+      <c r="DS5" t="s" s="917">
         <v>15</v>
       </c>
-      <c r="DT5" s="894"/>
-      <c r="DU5" s="895"/>
-      <c r="DV5" s="896"/>
-      <c r="DW5" s="897"/>
-      <c r="DX5" s="898"/>
-      <c r="DY5" s="899"/>
-      <c r="DZ5" s="900"/>
-      <c r="EA5" s="901"/>
-      <c r="EB5" s="902"/>
-      <c r="EC5" s="903"/>
-      <c r="ED5" s="904"/>
-      <c r="EE5" t="s" s="905">
+      <c r="DT5" s="918"/>
+      <c r="DU5" s="919"/>
+      <c r="DV5" s="920"/>
+      <c r="DW5" s="921"/>
+      <c r="DX5" s="922"/>
+      <c r="DY5" s="923"/>
+      <c r="DZ5" s="924"/>
+      <c r="EA5" s="925"/>
+      <c r="EB5" s="926"/>
+      <c r="EC5" s="927"/>
+      <c r="ED5" s="928"/>
+      <c r="EE5" t="s" s="929">
         <v>16</v>
       </c>
-      <c r="EF5" s="906"/>
-      <c r="EG5" s="907"/>
-      <c r="EH5" s="908"/>
-      <c r="EI5" s="909"/>
-      <c r="EJ5" s="910"/>
-      <c r="EK5" s="911"/>
-      <c r="EL5" s="912"/>
-      <c r="EM5" s="913"/>
-      <c r="EN5" s="914"/>
-      <c r="EO5" s="915"/>
-      <c r="EP5" s="916"/>
-      <c r="EQ5" t="s" s="917">
+      <c r="EF5" s="930"/>
+      <c r="EG5" s="931"/>
+      <c r="EH5" s="932"/>
+      <c r="EI5" s="933"/>
+      <c r="EJ5" s="934"/>
+      <c r="EK5" s="935"/>
+      <c r="EL5" s="936"/>
+      <c r="EM5" s="937"/>
+      <c r="EN5" s="938"/>
+      <c r="EO5" s="939"/>
+      <c r="EP5" s="940"/>
+      <c r="EQ5" t="s" s="941">
         <v>17</v>
       </c>
-      <c r="ER5" s="918"/>
-      <c r="ES5" s="919"/>
-      <c r="ET5" s="920"/>
-      <c r="EU5" s="921"/>
-      <c r="EV5" s="922"/>
-      <c r="EW5" s="923"/>
-      <c r="EX5" s="924"/>
-      <c r="EY5" s="925"/>
-      <c r="EZ5" s="926"/>
-      <c r="FA5" s="927"/>
-      <c r="FB5" s="928"/>
-      <c r="FC5" t="s" s="929">
+      <c r="ER5" s="942"/>
+      <c r="ES5" s="943"/>
+      <c r="ET5" s="944"/>
+      <c r="EU5" s="945"/>
+      <c r="EV5" s="946"/>
+      <c r="EW5" s="947"/>
+      <c r="EX5" s="948"/>
+      <c r="EY5" s="949"/>
+      <c r="EZ5" s="950"/>
+      <c r="FA5" s="951"/>
+      <c r="FB5" s="952"/>
+      <c r="FC5" t="s" s="953">
         <v>18</v>
       </c>
-      <c r="FD5" s="930"/>
-      <c r="FE5" s="931"/>
-      <c r="FF5" s="932"/>
-      <c r="FG5" s="933"/>
-      <c r="FH5" s="934"/>
-      <c r="FI5" s="935"/>
-      <c r="FJ5" s="936"/>
-      <c r="FK5" s="937"/>
-      <c r="FL5" s="938"/>
-      <c r="FM5" s="939"/>
-      <c r="FN5" s="940"/>
-      <c r="FO5" t="s" s="941">
+      <c r="FD5" s="954"/>
+      <c r="FE5" s="955"/>
+      <c r="FF5" s="956"/>
+      <c r="FG5" s="957"/>
+      <c r="FH5" s="958"/>
+      <c r="FI5" s="959"/>
+      <c r="FJ5" s="960"/>
+      <c r="FK5" s="961"/>
+      <c r="FL5" s="962"/>
+      <c r="FM5" s="963"/>
+      <c r="FN5" s="964"/>
+      <c r="FO5" t="s" s="965">
         <v>19</v>
       </c>
-      <c r="FP5" s="942"/>
-      <c r="FQ5" s="943"/>
-      <c r="FR5" s="944"/>
-      <c r="FS5" s="945"/>
-      <c r="FT5" s="946"/>
-      <c r="FU5" s="947"/>
-      <c r="FV5" s="948"/>
-      <c r="FW5" s="949"/>
-      <c r="FX5" s="950"/>
-      <c r="FY5" s="951"/>
-      <c r="FZ5" s="952"/>
-      <c r="GA5" t="s" s="953">
+      <c r="FP5" s="966"/>
+      <c r="FQ5" s="967"/>
+      <c r="FR5" s="968"/>
+      <c r="FS5" s="969"/>
+      <c r="FT5" s="970"/>
+      <c r="FU5" s="971"/>
+      <c r="FV5" s="972"/>
+      <c r="FW5" s="973"/>
+      <c r="FX5" s="974"/>
+      <c r="FY5" s="975"/>
+      <c r="FZ5" s="976"/>
+      <c r="GA5" t="s" s="977">
         <v>20</v>
       </c>
-      <c r="GB5" s="954"/>
-      <c r="GC5" s="955"/>
-      <c r="GD5" s="956"/>
-      <c r="GE5" s="957"/>
-      <c r="GF5" s="958"/>
-      <c r="GG5" s="959"/>
-      <c r="GH5" s="960"/>
-      <c r="GI5" s="961"/>
-      <c r="GJ5" s="962"/>
-      <c r="GK5" s="963"/>
-      <c r="GL5" s="964"/>
-      <c r="GM5" t="s" s="965">
+      <c r="GB5" s="978"/>
+      <c r="GC5" s="979"/>
+      <c r="GD5" s="980"/>
+      <c r="GE5" s="981"/>
+      <c r="GF5" s="982"/>
+      <c r="GG5" s="983"/>
+      <c r="GH5" s="984"/>
+      <c r="GI5" s="985"/>
+      <c r="GJ5" s="986"/>
+      <c r="GK5" s="987"/>
+      <c r="GL5" s="988"/>
+      <c r="GM5" t="s" s="989">
         <v>21</v>
       </c>
-      <c r="GN5" s="966"/>
-      <c r="GO5" s="967"/>
-      <c r="GP5" s="968"/>
-      <c r="GQ5" s="969"/>
-      <c r="GR5" s="970"/>
-      <c r="GS5" s="971"/>
-      <c r="GT5" s="972"/>
-      <c r="GU5" s="973"/>
-      <c r="GV5" s="974"/>
-      <c r="GW5" s="975"/>
-      <c r="GX5" s="976"/>
-      <c r="GY5" t="s" s="977">
+      <c r="GN5" s="990"/>
+      <c r="GO5" s="991"/>
+      <c r="GP5" s="992"/>
+      <c r="GQ5" s="993"/>
+      <c r="GR5" s="994"/>
+      <c r="GS5" s="995"/>
+      <c r="GT5" s="996"/>
+      <c r="GU5" s="997"/>
+      <c r="GV5" s="998"/>
+      <c r="GW5" s="999"/>
+      <c r="GX5" s="1000"/>
+      <c r="GY5" t="s" s="1001">
         <v>22</v>
       </c>
-      <c r="GZ5" s="978"/>
-      <c r="HA5" s="979"/>
-      <c r="HB5" s="980"/>
-      <c r="HC5" s="981"/>
-      <c r="HD5" s="982"/>
-      <c r="HE5" s="983"/>
-      <c r="HF5" s="984"/>
-      <c r="HG5" s="985"/>
-      <c r="HH5" s="986"/>
-      <c r="HI5" s="987"/>
-      <c r="HJ5" s="988"/>
-      <c r="HK5" t="s" s="989">
+      <c r="GZ5" s="1002"/>
+      <c r="HA5" s="1003"/>
+      <c r="HB5" s="1004"/>
+      <c r="HC5" s="1005"/>
+      <c r="HD5" s="1006"/>
+      <c r="HE5" s="1007"/>
+      <c r="HF5" s="1008"/>
+      <c r="HG5" s="1009"/>
+      <c r="HH5" s="1010"/>
+      <c r="HI5" s="1011"/>
+      <c r="HJ5" s="1012"/>
+      <c r="HK5" t="s" s="1013">
         <v>23</v>
       </c>
-      <c r="HL5" s="990"/>
-      <c r="HM5" s="991"/>
-      <c r="HN5" s="992"/>
-      <c r="HO5" s="993"/>
-      <c r="HP5" s="994"/>
-      <c r="HQ5" s="995"/>
-      <c r="HR5" s="996"/>
-      <c r="HS5" s="997"/>
-      <c r="HT5" s="998"/>
-      <c r="HU5" s="999"/>
-      <c r="HV5" s="1000"/>
-      <c r="HW5" t="s" s="1001">
+      <c r="HL5" s="1014"/>
+      <c r="HM5" s="1015"/>
+      <c r="HN5" s="1016"/>
+      <c r="HO5" s="1017"/>
+      <c r="HP5" s="1018"/>
+      <c r="HQ5" s="1019"/>
+      <c r="HR5" s="1020"/>
+      <c r="HS5" s="1021"/>
+      <c r="HT5" s="1022"/>
+      <c r="HU5" s="1023"/>
+      <c r="HV5" s="1024"/>
+      <c r="HW5" t="s" s="1025">
         <v>24</v>
       </c>
-      <c r="HX5" s="1002"/>
-      <c r="HY5" s="1003"/>
-      <c r="HZ5" s="1004"/>
-      <c r="IA5" s="1005"/>
-      <c r="IB5" s="1006"/>
-      <c r="IC5" s="1007"/>
-      <c r="ID5" s="1008"/>
-      <c r="IE5" s="1009"/>
-      <c r="IF5" s="1010"/>
-      <c r="IG5" s="1011"/>
-      <c r="IH5" s="1012"/>
-      <c r="II5" t="s" s="1013">
+      <c r="HX5" s="1026"/>
+      <c r="HY5" s="1027"/>
+      <c r="HZ5" s="1028"/>
+      <c r="IA5" s="1029"/>
+      <c r="IB5" s="1030"/>
+      <c r="IC5" s="1031"/>
+      <c r="ID5" s="1032"/>
+      <c r="IE5" s="1033"/>
+      <c r="IF5" s="1034"/>
+      <c r="IG5" s="1035"/>
+      <c r="IH5" s="1036"/>
+      <c r="II5" t="s" s="1037">
         <v>25</v>
       </c>
-      <c r="IJ5" s="1014"/>
-      <c r="IK5" s="1015"/>
-      <c r="IL5" s="1016"/>
-      <c r="IM5" s="1017"/>
-      <c r="IN5" s="1018"/>
-      <c r="IO5" s="1019"/>
-      <c r="IP5" s="1020"/>
-      <c r="IQ5" s="1021"/>
-      <c r="IR5" s="1022"/>
-      <c r="IS5" s="1023"/>
-      <c r="IT5" s="1024"/>
-      <c r="IU5" t="s" s="1025">
+      <c r="IJ5" s="1038"/>
+      <c r="IK5" s="1039"/>
+      <c r="IL5" s="1040"/>
+      <c r="IM5" s="1041"/>
+      <c r="IN5" s="1042"/>
+      <c r="IO5" s="1043"/>
+      <c r="IP5" s="1044"/>
+      <c r="IQ5" s="1045"/>
+      <c r="IR5" s="1046"/>
+      <c r="IS5" s="1047"/>
+      <c r="IT5" s="1048"/>
+      <c r="IU5" t="s" s="1049">
         <v>26</v>
       </c>
-      <c r="IV5" s="1026"/>
-      <c r="IW5" s="1027"/>
-      <c r="IX5" s="1028"/>
-      <c r="IY5" s="1029"/>
-      <c r="IZ5" s="1030"/>
-      <c r="JA5" s="1031"/>
-      <c r="JB5" s="1032"/>
-      <c r="JC5" s="1033"/>
-      <c r="JD5" s="1034"/>
-      <c r="JE5" s="1035"/>
-      <c r="JF5" s="1036"/>
-      <c r="JG5" t="s" s="1037">
+      <c r="IV5" s="1050"/>
+      <c r="IW5" s="1051"/>
+      <c r="IX5" s="1052"/>
+      <c r="IY5" s="1053"/>
+      <c r="IZ5" s="1054"/>
+      <c r="JA5" s="1055"/>
+      <c r="JB5" s="1056"/>
+      <c r="JC5" s="1057"/>
+      <c r="JD5" s="1058"/>
+      <c r="JE5" s="1059"/>
+      <c r="JF5" s="1060"/>
+      <c r="JG5" t="s" s="1061">
         <v>27</v>
       </c>
-      <c r="JH5" s="1038"/>
-      <c r="JI5" s="1039"/>
-      <c r="JJ5" s="1040"/>
-      <c r="JK5" s="1041"/>
-      <c r="JL5" s="1042"/>
-      <c r="JM5" s="1043"/>
-      <c r="JN5" s="1044"/>
-      <c r="JO5" s="1045"/>
-      <c r="JP5" s="1046"/>
-      <c r="JQ5" s="1047"/>
-      <c r="JR5" s="1048"/>
-      <c r="JS5" t="s" s="1049">
+      <c r="JH5" s="1062"/>
+      <c r="JI5" s="1063"/>
+      <c r="JJ5" s="1064"/>
+      <c r="JK5" s="1065"/>
+      <c r="JL5" s="1066"/>
+      <c r="JM5" s="1067"/>
+      <c r="JN5" s="1068"/>
+      <c r="JO5" s="1069"/>
+      <c r="JP5" s="1070"/>
+      <c r="JQ5" s="1071"/>
+      <c r="JR5" s="1072"/>
+      <c r="JS5" t="s" s="1073">
         <v>28</v>
       </c>
-      <c r="JT5" s="1050"/>
-      <c r="JU5" s="1051"/>
-      <c r="JV5" s="1052"/>
-      <c r="JW5" s="1053"/>
-      <c r="JX5" s="1054"/>
-      <c r="JY5" s="1055"/>
-      <c r="JZ5" s="1056"/>
-      <c r="KA5" s="1057"/>
-      <c r="KB5" s="1058"/>
-      <c r="KC5" s="1059"/>
-      <c r="KD5" s="1060"/>
-      <c r="KE5" t="s" s="1061">
+      <c r="JT5" s="1074"/>
+      <c r="JU5" s="1075"/>
+      <c r="JV5" s="1076"/>
+      <c r="JW5" s="1077"/>
+      <c r="JX5" s="1078"/>
+      <c r="JY5" s="1079"/>
+      <c r="JZ5" s="1080"/>
+      <c r="KA5" s="1081"/>
+      <c r="KB5" s="1082"/>
+      <c r="KC5" s="1083"/>
+      <c r="KD5" s="1084"/>
+      <c r="KE5" t="s" s="1085">
         <v>29</v>
       </c>
-      <c r="KF5" s="1062"/>
-      <c r="KG5" s="1063"/>
-      <c r="KH5" s="1064"/>
-      <c r="KI5" s="1065"/>
-      <c r="KJ5" s="1066"/>
-      <c r="KK5" s="1067"/>
-      <c r="KL5" s="1068"/>
-      <c r="KM5" s="1069"/>
-      <c r="KN5" s="1070"/>
-      <c r="KO5" s="1071"/>
-      <c r="KP5" s="1072"/>
-      <c r="KQ5" t="s" s="1073">
+      <c r="KF5" s="1086"/>
+      <c r="KG5" s="1087"/>
+      <c r="KH5" s="1088"/>
+      <c r="KI5" s="1089"/>
+      <c r="KJ5" s="1090"/>
+      <c r="KK5" s="1091"/>
+      <c r="KL5" s="1092"/>
+      <c r="KM5" s="1093"/>
+      <c r="KN5" s="1094"/>
+      <c r="KO5" s="1095"/>
+      <c r="KP5" s="1096"/>
+      <c r="KQ5" t="s" s="1097">
         <v>30</v>
       </c>
-      <c r="KR5" s="1074"/>
-      <c r="KS5" s="1075"/>
-      <c r="KT5" s="1076"/>
-      <c r="KU5" s="1077"/>
-      <c r="KV5" s="1078"/>
-      <c r="KW5" s="1079"/>
-      <c r="KX5" s="1080"/>
-      <c r="KY5" s="1081"/>
-      <c r="KZ5" s="1082"/>
-      <c r="LA5" s="1083"/>
-      <c r="LB5" s="1084"/>
-      <c r="LC5" t="s" s="1085">
+      <c r="KR5" s="1098"/>
+      <c r="KS5" s="1099"/>
+      <c r="KT5" s="1100"/>
+      <c r="KU5" s="1101"/>
+      <c r="KV5" s="1102"/>
+      <c r="KW5" s="1103"/>
+      <c r="KX5" s="1104"/>
+      <c r="KY5" s="1105"/>
+      <c r="KZ5" s="1106"/>
+      <c r="LA5" s="1107"/>
+      <c r="LB5" s="1108"/>
+      <c r="LC5" t="s" s="1109">
         <v>31</v>
       </c>
-      <c r="LD5" s="1086"/>
-      <c r="LE5" s="1087"/>
-      <c r="LF5" s="1088"/>
-      <c r="LG5" s="1089"/>
-      <c r="LH5" s="1090"/>
-      <c r="LI5" s="1091"/>
-      <c r="LJ5" s="1092"/>
-      <c r="LK5" s="1093"/>
-      <c r="LL5" s="1094"/>
-      <c r="LM5" s="1095"/>
-      <c r="LN5" s="1096"/>
-      <c r="LO5" t="s" s="1097">
+      <c r="LD5" s="1110"/>
+      <c r="LE5" s="1111"/>
+      <c r="LF5" s="1112"/>
+      <c r="LG5" s="1113"/>
+      <c r="LH5" s="1114"/>
+      <c r="LI5" s="1115"/>
+      <c r="LJ5" s="1116"/>
+      <c r="LK5" s="1117"/>
+      <c r="LL5" s="1118"/>
+      <c r="LM5" s="1119"/>
+      <c r="LN5" s="1120"/>
+      <c r="LO5" t="s" s="1121">
         <v>32</v>
       </c>
-      <c r="LP5" s="1098"/>
-      <c r="LQ5" s="1099"/>
-      <c r="LR5" s="1100"/>
-      <c r="LS5" s="1101"/>
-      <c r="LT5" s="1102"/>
-      <c r="LU5" s="1103"/>
-      <c r="LV5" s="1104"/>
-      <c r="LW5" s="1105"/>
-      <c r="LX5" s="1106"/>
-      <c r="LY5" s="1107"/>
-      <c r="LZ5" s="1108"/>
-      <c r="MA5" t="s" s="1109">
+      <c r="LP5" s="1122"/>
+      <c r="LQ5" s="1123"/>
+      <c r="LR5" s="1124"/>
+      <c r="LS5" s="1125"/>
+      <c r="LT5" s="1126"/>
+      <c r="LU5" s="1127"/>
+      <c r="LV5" s="1128"/>
+      <c r="LW5" s="1129"/>
+      <c r="LX5" s="1130"/>
+      <c r="LY5" s="1131"/>
+      <c r="LZ5" s="1132"/>
+      <c r="MA5" t="s" s="1133">
         <v>33</v>
       </c>
-      <c r="MB5" s="1110"/>
-      <c r="MC5" s="1111"/>
-      <c r="MD5" s="1112"/>
-      <c r="ME5" s="1113"/>
-      <c r="MF5" s="1114"/>
-      <c r="MG5" s="1115"/>
-      <c r="MH5" s="1116"/>
-      <c r="MI5" s="1117"/>
-      <c r="MJ5" s="1118"/>
-      <c r="MK5" s="1119"/>
-      <c r="ML5" s="1120"/>
-      <c r="MM5" t="s" s="1121">
+      <c r="MB5" s="1134"/>
+      <c r="MC5" s="1135"/>
+      <c r="MD5" s="1136"/>
+      <c r="ME5" s="1137"/>
+      <c r="MF5" s="1138"/>
+      <c r="MG5" s="1139"/>
+      <c r="MH5" s="1140"/>
+      <c r="MI5" s="1141"/>
+      <c r="MJ5" s="1142"/>
+      <c r="MK5" s="1143"/>
+      <c r="ML5" s="1144"/>
+      <c r="MM5" t="s" s="1145">
         <v>34</v>
       </c>
-      <c r="MN5" s="1122"/>
-      <c r="MO5" s="1123"/>
-      <c r="MP5" s="1124"/>
-      <c r="MQ5" s="1125"/>
-      <c r="MR5" s="1126"/>
-      <c r="MS5" s="1127"/>
-      <c r="MT5" s="1128"/>
-      <c r="MU5" s="1129"/>
-      <c r="MV5" s="1130"/>
-      <c r="MW5" s="1131"/>
-      <c r="MX5" s="1132"/>
-      <c r="MY5" t="s" s="1133">
+      <c r="MN5" s="1146"/>
+      <c r="MO5" s="1147"/>
+      <c r="MP5" s="1148"/>
+      <c r="MQ5" s="1149"/>
+      <c r="MR5" s="1150"/>
+      <c r="MS5" s="1151"/>
+      <c r="MT5" s="1152"/>
+      <c r="MU5" s="1153"/>
+      <c r="MV5" s="1154"/>
+      <c r="MW5" s="1155"/>
+      <c r="MX5" s="1156"/>
+      <c r="MY5" t="s" s="1157">
         <v>35</v>
       </c>
-      <c r="MZ5" s="1134"/>
-      <c r="NA5" s="1135"/>
-      <c r="NB5" s="1136"/>
-      <c r="NC5" s="1137"/>
-      <c r="ND5" s="1138"/>
-      <c r="NE5" s="1139"/>
-      <c r="NF5" s="1140"/>
-      <c r="NG5" s="1141"/>
-      <c r="NH5" s="1142"/>
-      <c r="NI5" s="1143"/>
-      <c r="NJ5" s="1144"/>
+      <c r="MZ5" s="1158"/>
+      <c r="NA5" s="1159"/>
+      <c r="NB5" s="1160"/>
+      <c r="NC5" s="1161"/>
+      <c r="ND5" s="1162"/>
+      <c r="NE5" s="1163"/>
+      <c r="NF5" s="1164"/>
+      <c r="NG5" s="1165"/>
+      <c r="NH5" s="1166"/>
+      <c r="NI5" s="1167"/>
+      <c r="NJ5" s="1168"/>
+      <c r="NK5" t="s" s="1169">
+        <v>36</v>
+      </c>
+      <c r="NL5" s="1170"/>
+      <c r="NM5" s="1171"/>
+      <c r="NN5" s="1172"/>
+      <c r="NO5" s="1173"/>
+      <c r="NP5" s="1174"/>
+      <c r="NQ5" s="1175"/>
+      <c r="NR5" s="1176"/>
+      <c r="NS5" s="1177"/>
+      <c r="NT5" s="1178"/>
+      <c r="NU5" s="1179"/>
+      <c r="NV5" s="1180"/>
     </row>
     <row r="6">
-      <c r="A6" s="1145"/>
-      <c r="B6" s="1146"/>
-      <c r="C6" t="s" s="1147">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="1148">
+      <c r="A6" s="1181"/>
+      <c r="B6" s="1182"/>
+      <c r="C6" t="s" s="1183">
         <v>37</v>
       </c>
-      <c r="E6" t="s" s="1149">
+      <c r="D6" t="s" s="1184">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="1150">
+      <c r="E6" t="s" s="1185">
         <v>39</v>
       </c>
-      <c r="G6" t="s" s="1151">
+      <c r="F6" t="s" s="1186">
         <v>40</v>
       </c>
-      <c r="H6" t="s" s="1152">
+      <c r="G6" t="s" s="1187">
         <v>41</v>
       </c>
-      <c r="I6" t="s" s="1153">
+      <c r="H6" t="s" s="1188">
         <v>42</v>
       </c>
-      <c r="J6" t="s" s="1154">
+      <c r="I6" t="s" s="1189">
         <v>43</v>
       </c>
-      <c r="K6" t="s" s="1155">
+      <c r="J6" t="s" s="1190">
         <v>44</v>
       </c>
-      <c r="L6" t="s" s="1156">
+      <c r="K6" t="s" s="1191">
         <v>45</v>
       </c>
-      <c r="M6" t="s" s="1157">
+      <c r="L6" t="s" s="1192">
         <v>46</v>
       </c>
-      <c r="N6" t="s" s="1158">
+      <c r="M6" t="s" s="1193">
         <v>47</v>
       </c>
-      <c r="O6" t="s" s="1159">
-        <v>36</v>
-      </c>
-      <c r="P6" t="s" s="1160">
+      <c r="N6" t="s" s="1194">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s" s="1195">
         <v>37</v>
       </c>
-      <c r="Q6" t="s" s="1161">
+      <c r="P6" t="s" s="1196">
         <v>38</v>
       </c>
-      <c r="R6" t="s" s="1162">
+      <c r="Q6" t="s" s="1197">
         <v>39</v>
       </c>
-      <c r="S6" t="s" s="1163">
+      <c r="R6" t="s" s="1198">
         <v>40</v>
       </c>
-      <c r="T6" t="s" s="1164">
+      <c r="S6" t="s" s="1199">
         <v>41</v>
       </c>
-      <c r="U6" t="s" s="1165">
+      <c r="T6" t="s" s="1200">
         <v>42</v>
       </c>
-      <c r="V6" t="s" s="1166">
+      <c r="U6" t="s" s="1201">
         <v>43</v>
       </c>
-      <c r="W6" t="s" s="1167">
+      <c r="V6" t="s" s="1202">
         <v>44</v>
       </c>
-      <c r="X6" t="s" s="1168">
+      <c r="W6" t="s" s="1203">
         <v>45</v>
       </c>
-      <c r="Y6" t="s" s="1169">
+      <c r="X6" t="s" s="1204">
         <v>46</v>
       </c>
-      <c r="Z6" t="s" s="1170">
+      <c r="Y6" t="s" s="1205">
         <v>47</v>
       </c>
-      <c r="AA6" t="s" s="1171">
-        <v>36</v>
-      </c>
-      <c r="AB6" t="s" s="1172">
+      <c r="Z6" t="s" s="1206">
+        <v>48</v>
+      </c>
+      <c r="AA6" t="s" s="1207">
         <v>37</v>
       </c>
-      <c r="AC6" t="s" s="1173">
+      <c r="AB6" t="s" s="1208">
         <v>38</v>
       </c>
-      <c r="AD6" t="s" s="1174">
+      <c r="AC6" t="s" s="1209">
         <v>39</v>
       </c>
-      <c r="AE6" t="s" s="1175">
+      <c r="AD6" t="s" s="1210">
         <v>40</v>
       </c>
-      <c r="AF6" t="s" s="1176">
+      <c r="AE6" t="s" s="1211">
         <v>41</v>
       </c>
-      <c r="AG6" t="s" s="1177">
+      <c r="AF6" t="s" s="1212">
         <v>42</v>
       </c>
-      <c r="AH6" t="s" s="1178">
+      <c r="AG6" t="s" s="1213">
         <v>43</v>
       </c>
-      <c r="AI6" t="s" s="1179">
+      <c r="AH6" t="s" s="1214">
         <v>44</v>
       </c>
-      <c r="AJ6" t="s" s="1180">
+      <c r="AI6" t="s" s="1215">
         <v>45</v>
       </c>
-      <c r="AK6" t="s" s="1181">
+      <c r="AJ6" t="s" s="1216">
         <v>46</v>
       </c>
-      <c r="AL6" t="s" s="1182">
+      <c r="AK6" t="s" s="1217">
         <v>47</v>
       </c>
-      <c r="AM6" t="s" s="1183">
-        <v>36</v>
-      </c>
-      <c r="AN6" t="s" s="1184">
+      <c r="AL6" t="s" s="1218">
+        <v>48</v>
+      </c>
+      <c r="AM6" t="s" s="1219">
         <v>37</v>
       </c>
-      <c r="AO6" t="s" s="1185">
+      <c r="AN6" t="s" s="1220">
         <v>38</v>
       </c>
-      <c r="AP6" t="s" s="1186">
+      <c r="AO6" t="s" s="1221">
         <v>39</v>
       </c>
-      <c r="AQ6" t="s" s="1187">
+      <c r="AP6" t="s" s="1222">
         <v>40</v>
       </c>
-      <c r="AR6" t="s" s="1188">
+      <c r="AQ6" t="s" s="1223">
         <v>41</v>
       </c>
-      <c r="AS6" t="s" s="1189">
+      <c r="AR6" t="s" s="1224">
         <v>42</v>
       </c>
-      <c r="AT6" t="s" s="1190">
+      <c r="AS6" t="s" s="1225">
         <v>43</v>
       </c>
-      <c r="AU6" t="s" s="1191">
+      <c r="AT6" t="s" s="1226">
         <v>44</v>
       </c>
-      <c r="AV6" t="s" s="1192">
+      <c r="AU6" t="s" s="1227">
         <v>45</v>
       </c>
-      <c r="AW6" t="s" s="1193">
+      <c r="AV6" t="s" s="1228">
         <v>46</v>
       </c>
-      <c r="AX6" t="s" s="1194">
+      <c r="AW6" t="s" s="1229">
         <v>47</v>
       </c>
-      <c r="AY6" t="s" s="1195">
-        <v>36</v>
-      </c>
-      <c r="AZ6" t="s" s="1196">
+      <c r="AX6" t="s" s="1230">
+        <v>48</v>
+      </c>
+      <c r="AY6" t="s" s="1231">
         <v>37</v>
       </c>
-      <c r="BA6" t="s" s="1197">
+      <c r="AZ6" t="s" s="1232">
         <v>38</v>
       </c>
-      <c r="BB6" t="s" s="1198">
+      <c r="BA6" t="s" s="1233">
         <v>39</v>
       </c>
-      <c r="BC6" t="s" s="1199">
+      <c r="BB6" t="s" s="1234">
         <v>40</v>
       </c>
-      <c r="BD6" t="s" s="1200">
+      <c r="BC6" t="s" s="1235">
         <v>41</v>
       </c>
-      <c r="BE6" t="s" s="1201">
+      <c r="BD6" t="s" s="1236">
         <v>42</v>
       </c>
-      <c r="BF6" t="s" s="1202">
+      <c r="BE6" t="s" s="1237">
         <v>43</v>
       </c>
-      <c r="BG6" t="s" s="1203">
+      <c r="BF6" t="s" s="1238">
         <v>44</v>
       </c>
-      <c r="BH6" t="s" s="1204">
+      <c r="BG6" t="s" s="1239">
         <v>45</v>
       </c>
-      <c r="BI6" t="s" s="1205">
+      <c r="BH6" t="s" s="1240">
         <v>46</v>
       </c>
-      <c r="BJ6" t="s" s="1206">
+      <c r="BI6" t="s" s="1241">
         <v>47</v>
       </c>
-      <c r="BK6" t="s" s="1207">
-        <v>36</v>
-      </c>
-      <c r="BL6" t="s" s="1208">
+      <c r="BJ6" t="s" s="1242">
+        <v>48</v>
+      </c>
+      <c r="BK6" t="s" s="1243">
         <v>37</v>
       </c>
-      <c r="BM6" t="s" s="1209">
+      <c r="BL6" t="s" s="1244">
         <v>38</v>
       </c>
-      <c r="BN6" t="s" s="1210">
+      <c r="BM6" t="s" s="1245">
         <v>39</v>
       </c>
-      <c r="BO6" t="s" s="1211">
+      <c r="BN6" t="s" s="1246">
         <v>40</v>
       </c>
-      <c r="BP6" t="s" s="1212">
+      <c r="BO6" t="s" s="1247">
         <v>41</v>
       </c>
-      <c r="BQ6" t="s" s="1213">
+      <c r="BP6" t="s" s="1248">
         <v>42</v>
       </c>
-      <c r="BR6" t="s" s="1214">
+      <c r="BQ6" t="s" s="1249">
         <v>43</v>
       </c>
-      <c r="BS6" t="s" s="1215">
+      <c r="BR6" t="s" s="1250">
         <v>44</v>
       </c>
-      <c r="BT6" t="s" s="1216">
+      <c r="BS6" t="s" s="1251">
         <v>45</v>
       </c>
-      <c r="BU6" t="s" s="1217">
+      <c r="BT6" t="s" s="1252">
         <v>46</v>
       </c>
-      <c r="BV6" t="s" s="1218">
+      <c r="BU6" t="s" s="1253">
         <v>47</v>
       </c>
-      <c r="BW6" t="s" s="1219">
-        <v>36</v>
-      </c>
-      <c r="BX6" t="s" s="1220">
+      <c r="BV6" t="s" s="1254">
+        <v>48</v>
+      </c>
+      <c r="BW6" t="s" s="1255">
         <v>37</v>
       </c>
-      <c r="BY6" t="s" s="1221">
+      <c r="BX6" t="s" s="1256">
         <v>38</v>
       </c>
-      <c r="BZ6" t="s" s="1222">
+      <c r="BY6" t="s" s="1257">
         <v>39</v>
       </c>
-      <c r="CA6" t="s" s="1223">
+      <c r="BZ6" t="s" s="1258">
         <v>40</v>
       </c>
-      <c r="CB6" t="s" s="1224">
+      <c r="CA6" t="s" s="1259">
         <v>41</v>
       </c>
-      <c r="CC6" t="s" s="1225">
+      <c r="CB6" t="s" s="1260">
         <v>42</v>
       </c>
-      <c r="CD6" t="s" s="1226">
+      <c r="CC6" t="s" s="1261">
         <v>43</v>
       </c>
-      <c r="CE6" t="s" s="1227">
+      <c r="CD6" t="s" s="1262">
         <v>44</v>
       </c>
-      <c r="CF6" t="s" s="1228">
+      <c r="CE6" t="s" s="1263">
         <v>45</v>
       </c>
-      <c r="CG6" t="s" s="1229">
+      <c r="CF6" t="s" s="1264">
         <v>46</v>
       </c>
-      <c r="CH6" t="s" s="1230">
+      <c r="CG6" t="s" s="1265">
         <v>47</v>
       </c>
-      <c r="CI6" t="s" s="1231">
-        <v>36</v>
-      </c>
-      <c r="CJ6" t="s" s="1232">
+      <c r="CH6" t="s" s="1266">
+        <v>48</v>
+      </c>
+      <c r="CI6" t="s" s="1267">
         <v>37</v>
       </c>
-      <c r="CK6" t="s" s="1233">
+      <c r="CJ6" t="s" s="1268">
         <v>38</v>
       </c>
-      <c r="CL6" t="s" s="1234">
+      <c r="CK6" t="s" s="1269">
         <v>39</v>
       </c>
-      <c r="CM6" t="s" s="1235">
+      <c r="CL6" t="s" s="1270">
         <v>40</v>
       </c>
-      <c r="CN6" t="s" s="1236">
+      <c r="CM6" t="s" s="1271">
         <v>41</v>
       </c>
-      <c r="CO6" t="s" s="1237">
+      <c r="CN6" t="s" s="1272">
         <v>42</v>
       </c>
-      <c r="CP6" t="s" s="1238">
+      <c r="CO6" t="s" s="1273">
         <v>43</v>
       </c>
-      <c r="CQ6" t="s" s="1239">
+      <c r="CP6" t="s" s="1274">
         <v>44</v>
       </c>
-      <c r="CR6" t="s" s="1240">
+      <c r="CQ6" t="s" s="1275">
         <v>45</v>
       </c>
-      <c r="CS6" t="s" s="1241">
+      <c r="CR6" t="s" s="1276">
         <v>46</v>
       </c>
-      <c r="CT6" t="s" s="1242">
+      <c r="CS6" t="s" s="1277">
         <v>47</v>
       </c>
-      <c r="CU6" t="s" s="1243">
-        <v>36</v>
-      </c>
-      <c r="CV6" t="s" s="1244">
+      <c r="CT6" t="s" s="1278">
+        <v>48</v>
+      </c>
+      <c r="CU6" t="s" s="1279">
         <v>37</v>
       </c>
-      <c r="CW6" t="s" s="1245">
+      <c r="CV6" t="s" s="1280">
         <v>38</v>
       </c>
-      <c r="CX6" t="s" s="1246">
+      <c r="CW6" t="s" s="1281">
         <v>39</v>
       </c>
-      <c r="CY6" t="s" s="1247">
+      <c r="CX6" t="s" s="1282">
         <v>40</v>
       </c>
-      <c r="CZ6" t="s" s="1248">
+      <c r="CY6" t="s" s="1283">
         <v>41</v>
       </c>
-      <c r="DA6" t="s" s="1249">
+      <c r="CZ6" t="s" s="1284">
         <v>42</v>
       </c>
-      <c r="DB6" t="s" s="1250">
+      <c r="DA6" t="s" s="1285">
         <v>43</v>
       </c>
-      <c r="DC6" t="s" s="1251">
+      <c r="DB6" t="s" s="1286">
         <v>44</v>
       </c>
-      <c r="DD6" t="s" s="1252">
+      <c r="DC6" t="s" s="1287">
         <v>45</v>
       </c>
-      <c r="DE6" t="s" s="1253">
+      <c r="DD6" t="s" s="1288">
         <v>46</v>
       </c>
-      <c r="DF6" t="s" s="1254">
+      <c r="DE6" t="s" s="1289">
         <v>47</v>
       </c>
-      <c r="DG6" t="s" s="1255">
-        <v>36</v>
-      </c>
-      <c r="DH6" t="s" s="1256">
+      <c r="DF6" t="s" s="1290">
+        <v>48</v>
+      </c>
+      <c r="DG6" t="s" s="1291">
         <v>37</v>
       </c>
-      <c r="DI6" t="s" s="1257">
+      <c r="DH6" t="s" s="1292">
         <v>38</v>
       </c>
-      <c r="DJ6" t="s" s="1258">
+      <c r="DI6" t="s" s="1293">
         <v>39</v>
       </c>
-      <c r="DK6" t="s" s="1259">
+      <c r="DJ6" t="s" s="1294">
         <v>40</v>
       </c>
-      <c r="DL6" t="s" s="1260">
+      <c r="DK6" t="s" s="1295">
         <v>41</v>
       </c>
-      <c r="DM6" t="s" s="1261">
+      <c r="DL6" t="s" s="1296">
         <v>42</v>
       </c>
-      <c r="DN6" t="s" s="1262">
+      <c r="DM6" t="s" s="1297">
         <v>43</v>
       </c>
-      <c r="DO6" t="s" s="1263">
+      <c r="DN6" t="s" s="1298">
         <v>44</v>
       </c>
-      <c r="DP6" t="s" s="1264">
+      <c r="DO6" t="s" s="1299">
         <v>45</v>
       </c>
-      <c r="DQ6" t="s" s="1265">
+      <c r="DP6" t="s" s="1300">
         <v>46</v>
       </c>
-      <c r="DR6" t="s" s="1266">
+      <c r="DQ6" t="s" s="1301">
         <v>47</v>
       </c>
-      <c r="DS6" t="s" s="1267">
-        <v>36</v>
-      </c>
-      <c r="DT6" t="s" s="1268">
+      <c r="DR6" t="s" s="1302">
+        <v>48</v>
+      </c>
+      <c r="DS6" t="s" s="1303">
         <v>37</v>
       </c>
-      <c r="DU6" t="s" s="1269">
+      <c r="DT6" t="s" s="1304">
         <v>38</v>
       </c>
-      <c r="DV6" t="s" s="1270">
+      <c r="DU6" t="s" s="1305">
         <v>39</v>
       </c>
-      <c r="DW6" t="s" s="1271">
+      <c r="DV6" t="s" s="1306">
         <v>40</v>
       </c>
-      <c r="DX6" t="s" s="1272">
+      <c r="DW6" t="s" s="1307">
         <v>41</v>
       </c>
-      <c r="DY6" t="s" s="1273">
+      <c r="DX6" t="s" s="1308">
         <v>42</v>
       </c>
-      <c r="DZ6" t="s" s="1274">
+      <c r="DY6" t="s" s="1309">
         <v>43</v>
       </c>
-      <c r="EA6" t="s" s="1275">
+      <c r="DZ6" t="s" s="1310">
         <v>44</v>
       </c>
-      <c r="EB6" t="s" s="1276">
+      <c r="EA6" t="s" s="1311">
         <v>45</v>
       </c>
-      <c r="EC6" t="s" s="1277">
+      <c r="EB6" t="s" s="1312">
         <v>46</v>
       </c>
-      <c r="ED6" t="s" s="1278">
+      <c r="EC6" t="s" s="1313">
         <v>47</v>
       </c>
-      <c r="EE6" t="s" s="1279">
-        <v>36</v>
-      </c>
-      <c r="EF6" t="s" s="1280">
+      <c r="ED6" t="s" s="1314">
+        <v>48</v>
+      </c>
+      <c r="EE6" t="s" s="1315">
         <v>37</v>
       </c>
-      <c r="EG6" t="s" s="1281">
+      <c r="EF6" t="s" s="1316">
         <v>38</v>
       </c>
-      <c r="EH6" t="s" s="1282">
+      <c r="EG6" t="s" s="1317">
         <v>39</v>
       </c>
-      <c r="EI6" t="s" s="1283">
+      <c r="EH6" t="s" s="1318">
         <v>40</v>
       </c>
-      <c r="EJ6" t="s" s="1284">
+      <c r="EI6" t="s" s="1319">
         <v>41</v>
       </c>
-      <c r="EK6" t="s" s="1285">
+      <c r="EJ6" t="s" s="1320">
         <v>42</v>
       </c>
-      <c r="EL6" t="s" s="1286">
+      <c r="EK6" t="s" s="1321">
         <v>43</v>
       </c>
-      <c r="EM6" t="s" s="1287">
+      <c r="EL6" t="s" s="1322">
         <v>44</v>
       </c>
-      <c r="EN6" t="s" s="1288">
+      <c r="EM6" t="s" s="1323">
         <v>45</v>
       </c>
-      <c r="EO6" t="s" s="1289">
+      <c r="EN6" t="s" s="1324">
         <v>46</v>
       </c>
-      <c r="EP6" t="s" s="1290">
+      <c r="EO6" t="s" s="1325">
         <v>47</v>
       </c>
-      <c r="EQ6" t="s" s="1291">
-        <v>36</v>
-      </c>
-      <c r="ER6" t="s" s="1292">
+      <c r="EP6" t="s" s="1326">
+        <v>48</v>
+      </c>
+      <c r="EQ6" t="s" s="1327">
         <v>37</v>
       </c>
-      <c r="ES6" t="s" s="1293">
+      <c r="ER6" t="s" s="1328">
         <v>38</v>
       </c>
-      <c r="ET6" t="s" s="1294">
+      <c r="ES6" t="s" s="1329">
         <v>39</v>
       </c>
-      <c r="EU6" t="s" s="1295">
+      <c r="ET6" t="s" s="1330">
         <v>40</v>
       </c>
-      <c r="EV6" t="s" s="1296">
+      <c r="EU6" t="s" s="1331">
         <v>41</v>
       </c>
-      <c r="EW6" t="s" s="1297">
+      <c r="EV6" t="s" s="1332">
         <v>42</v>
       </c>
-      <c r="EX6" t="s" s="1298">
+      <c r="EW6" t="s" s="1333">
         <v>43</v>
       </c>
-      <c r="EY6" t="s" s="1299">
+      <c r="EX6" t="s" s="1334">
         <v>44</v>
       </c>
-      <c r="EZ6" t="s" s="1300">
+      <c r="EY6" t="s" s="1335">
         <v>45</v>
       </c>
-      <c r="FA6" t="s" s="1301">
+      <c r="EZ6" t="s" s="1336">
         <v>46</v>
       </c>
-      <c r="FB6" t="s" s="1302">
+      <c r="FA6" t="s" s="1337">
         <v>47</v>
       </c>
-      <c r="FC6" t="s" s="1303">
-        <v>36</v>
-      </c>
-      <c r="FD6" t="s" s="1304">
+      <c r="FB6" t="s" s="1338">
+        <v>48</v>
+      </c>
+      <c r="FC6" t="s" s="1339">
         <v>37</v>
       </c>
-      <c r="FE6" t="s" s="1305">
+      <c r="FD6" t="s" s="1340">
         <v>38</v>
       </c>
-      <c r="FF6" t="s" s="1306">
+      <c r="FE6" t="s" s="1341">
         <v>39</v>
       </c>
-      <c r="FG6" t="s" s="1307">
+      <c r="FF6" t="s" s="1342">
         <v>40</v>
       </c>
-      <c r="FH6" t="s" s="1308">
+      <c r="FG6" t="s" s="1343">
         <v>41</v>
       </c>
-      <c r="FI6" t="s" s="1309">
+      <c r="FH6" t="s" s="1344">
         <v>42</v>
       </c>
-      <c r="FJ6" t="s" s="1310">
+      <c r="FI6" t="s" s="1345">
         <v>43</v>
       </c>
-      <c r="FK6" t="s" s="1311">
+      <c r="FJ6" t="s" s="1346">
         <v>44</v>
       </c>
-      <c r="FL6" t="s" s="1312">
+      <c r="FK6" t="s" s="1347">
         <v>45</v>
       </c>
-      <c r="FM6" t="s" s="1313">
+      <c r="FL6" t="s" s="1348">
         <v>46</v>
       </c>
-      <c r="FN6" t="s" s="1314">
+      <c r="FM6" t="s" s="1349">
         <v>47</v>
       </c>
-      <c r="FO6" t="s" s="1315">
-        <v>36</v>
-      </c>
-      <c r="FP6" t="s" s="1316">
+      <c r="FN6" t="s" s="1350">
+        <v>48</v>
+      </c>
+      <c r="FO6" t="s" s="1351">
         <v>37</v>
       </c>
-      <c r="FQ6" t="s" s="1317">
+      <c r="FP6" t="s" s="1352">
         <v>38</v>
       </c>
-      <c r="FR6" t="s" s="1318">
+      <c r="FQ6" t="s" s="1353">
         <v>39</v>
       </c>
-      <c r="FS6" t="s" s="1319">
+      <c r="FR6" t="s" s="1354">
         <v>40</v>
       </c>
-      <c r="FT6" t="s" s="1320">
+      <c r="FS6" t="s" s="1355">
         <v>41</v>
       </c>
-      <c r="FU6" t="s" s="1321">
+      <c r="FT6" t="s" s="1356">
         <v>42</v>
       </c>
-      <c r="FV6" t="s" s="1322">
+      <c r="FU6" t="s" s="1357">
         <v>43</v>
       </c>
-      <c r="FW6" t="s" s="1323">
+      <c r="FV6" t="s" s="1358">
         <v>44</v>
       </c>
-      <c r="FX6" t="s" s="1324">
+      <c r="FW6" t="s" s="1359">
         <v>45</v>
       </c>
-      <c r="FY6" t="s" s="1325">
+      <c r="FX6" t="s" s="1360">
         <v>46</v>
       </c>
-      <c r="FZ6" t="s" s="1326">
+      <c r="FY6" t="s" s="1361">
         <v>47</v>
       </c>
-      <c r="GA6" t="s" s="1327">
-        <v>36</v>
-      </c>
-      <c r="GB6" t="s" s="1328">
+      <c r="FZ6" t="s" s="1362">
+        <v>48</v>
+      </c>
+      <c r="GA6" t="s" s="1363">
         <v>37</v>
       </c>
-      <c r="GC6" t="s" s="1329">
+      <c r="GB6" t="s" s="1364">
         <v>38</v>
       </c>
-      <c r="GD6" t="s" s="1330">
+      <c r="GC6" t="s" s="1365">
         <v>39</v>
       </c>
-      <c r="GE6" t="s" s="1331">
+      <c r="GD6" t="s" s="1366">
         <v>40</v>
       </c>
-      <c r="GF6" t="s" s="1332">
+      <c r="GE6" t="s" s="1367">
         <v>41</v>
       </c>
-      <c r="GG6" t="s" s="1333">
+      <c r="GF6" t="s" s="1368">
         <v>42</v>
       </c>
-      <c r="GH6" t="s" s="1334">
+      <c r="GG6" t="s" s="1369">
         <v>43</v>
       </c>
-      <c r="GI6" t="s" s="1335">
+      <c r="GH6" t="s" s="1370">
         <v>44</v>
       </c>
-      <c r="GJ6" t="s" s="1336">
+      <c r="GI6" t="s" s="1371">
         <v>45</v>
       </c>
-      <c r="GK6" t="s" s="1337">
+      <c r="GJ6" t="s" s="1372">
         <v>46</v>
       </c>
-      <c r="GL6" t="s" s="1338">
+      <c r="GK6" t="s" s="1373">
         <v>47</v>
       </c>
-      <c r="GM6" t="s" s="1339">
-        <v>36</v>
-      </c>
-      <c r="GN6" t="s" s="1340">
+      <c r="GL6" t="s" s="1374">
+        <v>48</v>
+      </c>
+      <c r="GM6" t="s" s="1375">
         <v>37</v>
       </c>
-      <c r="GO6" t="s" s="1341">
+      <c r="GN6" t="s" s="1376">
         <v>38</v>
       </c>
-      <c r="GP6" t="s" s="1342">
+      <c r="GO6" t="s" s="1377">
         <v>39</v>
       </c>
-      <c r="GQ6" t="s" s="1343">
+      <c r="GP6" t="s" s="1378">
         <v>40</v>
       </c>
-      <c r="GR6" t="s" s="1344">
+      <c r="GQ6" t="s" s="1379">
         <v>41</v>
       </c>
-      <c r="GS6" t="s" s="1345">
+      <c r="GR6" t="s" s="1380">
         <v>42</v>
       </c>
-      <c r="GT6" t="s" s="1346">
+      <c r="GS6" t="s" s="1381">
         <v>43</v>
       </c>
-      <c r="GU6" t="s" s="1347">
+      <c r="GT6" t="s" s="1382">
         <v>44</v>
       </c>
-      <c r="GV6" t="s" s="1348">
+      <c r="GU6" t="s" s="1383">
         <v>45</v>
       </c>
-      <c r="GW6" t="s" s="1349">
+      <c r="GV6" t="s" s="1384">
         <v>46</v>
       </c>
-      <c r="GX6" t="s" s="1350">
+      <c r="GW6" t="s" s="1385">
         <v>47</v>
       </c>
-      <c r="GY6" t="s" s="1351">
-        <v>36</v>
-      </c>
-      <c r="GZ6" t="s" s="1352">
+      <c r="GX6" t="s" s="1386">
+        <v>48</v>
+      </c>
+      <c r="GY6" t="s" s="1387">
         <v>37</v>
       </c>
-      <c r="HA6" t="s" s="1353">
+      <c r="GZ6" t="s" s="1388">
         <v>38</v>
       </c>
-      <c r="HB6" t="s" s="1354">
+      <c r="HA6" t="s" s="1389">
         <v>39</v>
       </c>
-      <c r="HC6" t="s" s="1355">
+      <c r="HB6" t="s" s="1390">
         <v>40</v>
       </c>
-      <c r="HD6" t="s" s="1356">
+      <c r="HC6" t="s" s="1391">
         <v>41</v>
       </c>
-      <c r="HE6" t="s" s="1357">
+      <c r="HD6" t="s" s="1392">
         <v>42</v>
       </c>
-      <c r="HF6" t="s" s="1358">
+      <c r="HE6" t="s" s="1393">
         <v>43</v>
       </c>
-      <c r="HG6" t="s" s="1359">
+      <c r="HF6" t="s" s="1394">
         <v>44</v>
       </c>
-      <c r="HH6" t="s" s="1360">
+      <c r="HG6" t="s" s="1395">
         <v>45</v>
       </c>
-      <c r="HI6" t="s" s="1361">
+      <c r="HH6" t="s" s="1396">
         <v>46</v>
       </c>
-      <c r="HJ6" t="s" s="1362">
+      <c r="HI6" t="s" s="1397">
         <v>47</v>
       </c>
-      <c r="HK6" t="s" s="1363">
-        <v>36</v>
-      </c>
-      <c r="HL6" t="s" s="1364">
+      <c r="HJ6" t="s" s="1398">
+        <v>48</v>
+      </c>
+      <c r="HK6" t="s" s="1399">
         <v>37</v>
       </c>
-      <c r="HM6" t="s" s="1365">
+      <c r="HL6" t="s" s="1400">
         <v>38</v>
       </c>
-      <c r="HN6" t="s" s="1366">
+      <c r="HM6" t="s" s="1401">
         <v>39</v>
       </c>
-      <c r="HO6" t="s" s="1367">
+      <c r="HN6" t="s" s="1402">
         <v>40</v>
       </c>
-      <c r="HP6" t="s" s="1368">
+      <c r="HO6" t="s" s="1403">
         <v>41</v>
       </c>
-      <c r="HQ6" t="s" s="1369">
+      <c r="HP6" t="s" s="1404">
         <v>42</v>
       </c>
-      <c r="HR6" t="s" s="1370">
+      <c r="HQ6" t="s" s="1405">
         <v>43</v>
       </c>
-      <c r="HS6" t="s" s="1371">
+      <c r="HR6" t="s" s="1406">
         <v>44</v>
       </c>
-      <c r="HT6" t="s" s="1372">
+      <c r="HS6" t="s" s="1407">
         <v>45</v>
       </c>
-      <c r="HU6" t="s" s="1373">
+      <c r="HT6" t="s" s="1408">
         <v>46</v>
       </c>
-      <c r="HV6" t="s" s="1374">
+      <c r="HU6" t="s" s="1409">
         <v>47</v>
       </c>
-      <c r="HW6" t="s" s="1375">
-        <v>36</v>
-      </c>
-      <c r="HX6" t="s" s="1376">
+      <c r="HV6" t="s" s="1410">
+        <v>48</v>
+      </c>
+      <c r="HW6" t="s" s="1411">
         <v>37</v>
       </c>
-      <c r="HY6" t="s" s="1377">
+      <c r="HX6" t="s" s="1412">
         <v>38</v>
       </c>
-      <c r="HZ6" t="s" s="1378">
+      <c r="HY6" t="s" s="1413">
         <v>39</v>
       </c>
-      <c r="IA6" t="s" s="1379">
+      <c r="HZ6" t="s" s="1414">
         <v>40</v>
       </c>
-      <c r="IB6" t="s" s="1380">
+      <c r="IA6" t="s" s="1415">
         <v>41</v>
       </c>
-      <c r="IC6" t="s" s="1381">
+      <c r="IB6" t="s" s="1416">
         <v>42</v>
       </c>
-      <c r="ID6" t="s" s="1382">
+      <c r="IC6" t="s" s="1417">
         <v>43</v>
       </c>
-      <c r="IE6" t="s" s="1383">
+      <c r="ID6" t="s" s="1418">
         <v>44</v>
       </c>
-      <c r="IF6" t="s" s="1384">
+      <c r="IE6" t="s" s="1419">
         <v>45</v>
       </c>
-      <c r="IG6" t="s" s="1385">
+      <c r="IF6" t="s" s="1420">
         <v>46</v>
       </c>
-      <c r="IH6" t="s" s="1386">
+      <c r="IG6" t="s" s="1421">
         <v>47</v>
       </c>
-      <c r="II6" t="s" s="1387">
-        <v>36</v>
-      </c>
-      <c r="IJ6" t="s" s="1388">
+      <c r="IH6" t="s" s="1422">
+        <v>48</v>
+      </c>
+      <c r="II6" t="s" s="1423">
         <v>37</v>
       </c>
-      <c r="IK6" t="s" s="1389">
+      <c r="IJ6" t="s" s="1424">
         <v>38</v>
       </c>
-      <c r="IL6" t="s" s="1390">
+      <c r="IK6" t="s" s="1425">
         <v>39</v>
       </c>
-      <c r="IM6" t="s" s="1391">
+      <c r="IL6" t="s" s="1426">
         <v>40</v>
       </c>
-      <c r="IN6" t="s" s="1392">
+      <c r="IM6" t="s" s="1427">
         <v>41</v>
       </c>
-      <c r="IO6" t="s" s="1393">
+      <c r="IN6" t="s" s="1428">
         <v>42</v>
       </c>
-      <c r="IP6" t="s" s="1394">
+      <c r="IO6" t="s" s="1429">
         <v>43</v>
       </c>
-      <c r="IQ6" t="s" s="1395">
+      <c r="IP6" t="s" s="1430">
         <v>44</v>
       </c>
-      <c r="IR6" t="s" s="1396">
+      <c r="IQ6" t="s" s="1431">
         <v>45</v>
       </c>
-      <c r="IS6" t="s" s="1397">
+      <c r="IR6" t="s" s="1432">
         <v>46</v>
       </c>
-      <c r="IT6" t="s" s="1398">
+      <c r="IS6" t="s" s="1433">
         <v>47</v>
       </c>
-      <c r="IU6" t="s" s="1399">
-        <v>36</v>
-      </c>
-      <c r="IV6" t="s" s="1400">
+      <c r="IT6" t="s" s="1434">
+        <v>48</v>
+      </c>
+      <c r="IU6" t="s" s="1435">
         <v>37</v>
       </c>
-      <c r="IW6" t="s" s="1401">
+      <c r="IV6" t="s" s="1436">
         <v>38</v>
       </c>
-      <c r="IX6" t="s" s="1402">
+      <c r="IW6" t="s" s="1437">
         <v>39</v>
       </c>
-      <c r="IY6" t="s" s="1403">
+      <c r="IX6" t="s" s="1438">
         <v>40</v>
       </c>
-      <c r="IZ6" t="s" s="1404">
+      <c r="IY6" t="s" s="1439">
         <v>41</v>
       </c>
-      <c r="JA6" t="s" s="1405">
+      <c r="IZ6" t="s" s="1440">
         <v>42</v>
       </c>
-      <c r="JB6" t="s" s="1406">
+      <c r="JA6" t="s" s="1441">
         <v>43</v>
       </c>
-      <c r="JC6" t="s" s="1407">
+      <c r="JB6" t="s" s="1442">
         <v>44</v>
       </c>
-      <c r="JD6" t="s" s="1408">
+      <c r="JC6" t="s" s="1443">
         <v>45</v>
       </c>
-      <c r="JE6" t="s" s="1409">
+      <c r="JD6" t="s" s="1444">
         <v>46</v>
       </c>
-      <c r="JF6" t="s" s="1410">
+      <c r="JE6" t="s" s="1445">
         <v>47</v>
       </c>
-      <c r="JG6" t="s" s="1411">
-        <v>36</v>
-      </c>
-      <c r="JH6" t="s" s="1412">
+      <c r="JF6" t="s" s="1446">
+        <v>48</v>
+      </c>
+      <c r="JG6" t="s" s="1447">
         <v>37</v>
       </c>
-      <c r="JI6" t="s" s="1413">
+      <c r="JH6" t="s" s="1448">
         <v>38</v>
       </c>
-      <c r="JJ6" t="s" s="1414">
+      <c r="JI6" t="s" s="1449">
         <v>39</v>
       </c>
-      <c r="JK6" t="s" s="1415">
+      <c r="JJ6" t="s" s="1450">
         <v>40</v>
       </c>
-      <c r="JL6" t="s" s="1416">
+      <c r="JK6" t="s" s="1451">
         <v>41</v>
       </c>
-      <c r="JM6" t="s" s="1417">
+      <c r="JL6" t="s" s="1452">
         <v>42</v>
       </c>
-      <c r="JN6" t="s" s="1418">
+      <c r="JM6" t="s" s="1453">
         <v>43</v>
       </c>
-      <c r="JO6" t="s" s="1419">
+      <c r="JN6" t="s" s="1454">
         <v>44</v>
       </c>
-      <c r="JP6" t="s" s="1420">
+      <c r="JO6" t="s" s="1455">
         <v>45</v>
       </c>
-      <c r="JQ6" t="s" s="1421">
+      <c r="JP6" t="s" s="1456">
         <v>46</v>
       </c>
-      <c r="JR6" t="s" s="1422">
+      <c r="JQ6" t="s" s="1457">
         <v>47</v>
       </c>
-      <c r="JS6" t="s" s="1423">
-        <v>36</v>
-      </c>
-      <c r="JT6" t="s" s="1424">
+      <c r="JR6" t="s" s="1458">
+        <v>48</v>
+      </c>
+      <c r="JS6" t="s" s="1459">
         <v>37</v>
       </c>
-      <c r="JU6" t="s" s="1425">
+      <c r="JT6" t="s" s="1460">
         <v>38</v>
       </c>
-      <c r="JV6" t="s" s="1426">
+      <c r="JU6" t="s" s="1461">
         <v>39</v>
       </c>
-      <c r="JW6" t="s" s="1427">
+      <c r="JV6" t="s" s="1462">
         <v>40</v>
       </c>
-      <c r="JX6" t="s" s="1428">
+      <c r="JW6" t="s" s="1463">
         <v>41</v>
       </c>
-      <c r="JY6" t="s" s="1429">
+      <c r="JX6" t="s" s="1464">
         <v>42</v>
       </c>
-      <c r="JZ6" t="s" s="1430">
+      <c r="JY6" t="s" s="1465">
         <v>43</v>
       </c>
-      <c r="KA6" t="s" s="1431">
+      <c r="JZ6" t="s" s="1466">
         <v>44</v>
       </c>
-      <c r="KB6" t="s" s="1432">
+      <c r="KA6" t="s" s="1467">
         <v>45</v>
       </c>
-      <c r="KC6" t="s" s="1433">
+      <c r="KB6" t="s" s="1468">
         <v>46</v>
       </c>
-      <c r="KD6" t="s" s="1434">
+      <c r="KC6" t="s" s="1469">
         <v>47</v>
       </c>
-      <c r="KE6" t="s" s="1435">
-        <v>36</v>
-      </c>
-      <c r="KF6" t="s" s="1436">
+      <c r="KD6" t="s" s="1470">
+        <v>48</v>
+      </c>
+      <c r="KE6" t="s" s="1471">
         <v>37</v>
       </c>
-      <c r="KG6" t="s" s="1437">
+      <c r="KF6" t="s" s="1472">
         <v>38</v>
       </c>
-      <c r="KH6" t="s" s="1438">
+      <c r="KG6" t="s" s="1473">
         <v>39</v>
       </c>
-      <c r="KI6" t="s" s="1439">
+      <c r="KH6" t="s" s="1474">
         <v>40</v>
       </c>
-      <c r="KJ6" t="s" s="1440">
+      <c r="KI6" t="s" s="1475">
         <v>41</v>
       </c>
-      <c r="KK6" t="s" s="1441">
+      <c r="KJ6" t="s" s="1476">
         <v>42</v>
       </c>
-      <c r="KL6" t="s" s="1442">
+      <c r="KK6" t="s" s="1477">
         <v>43</v>
       </c>
-      <c r="KM6" t="s" s="1443">
+      <c r="KL6" t="s" s="1478">
         <v>44</v>
       </c>
-      <c r="KN6" t="s" s="1444">
+      <c r="KM6" t="s" s="1479">
         <v>45</v>
       </c>
-      <c r="KO6" t="s" s="1445">
+      <c r="KN6" t="s" s="1480">
         <v>46</v>
       </c>
-      <c r="KP6" t="s" s="1446">
+      <c r="KO6" t="s" s="1481">
         <v>47</v>
       </c>
-      <c r="KQ6" t="s" s="1447">
-        <v>36</v>
-      </c>
-      <c r="KR6" t="s" s="1448">
+      <c r="KP6" t="s" s="1482">
+        <v>48</v>
+      </c>
+      <c r="KQ6" t="s" s="1483">
         <v>37</v>
       </c>
-      <c r="KS6" t="s" s="1449">
+      <c r="KR6" t="s" s="1484">
         <v>38</v>
       </c>
-      <c r="KT6" t="s" s="1450">
+      <c r="KS6" t="s" s="1485">
         <v>39</v>
       </c>
-      <c r="KU6" t="s" s="1451">
+      <c r="KT6" t="s" s="1486">
         <v>40</v>
       </c>
-      <c r="KV6" t="s" s="1452">
+      <c r="KU6" t="s" s="1487">
         <v>41</v>
       </c>
-      <c r="KW6" t="s" s="1453">
+      <c r="KV6" t="s" s="1488">
         <v>42</v>
       </c>
-      <c r="KX6" t="s" s="1454">
+      <c r="KW6" t="s" s="1489">
         <v>43</v>
       </c>
-      <c r="KY6" t="s" s="1455">
+      <c r="KX6" t="s" s="1490">
         <v>44</v>
       </c>
-      <c r="KZ6" t="s" s="1456">
+      <c r="KY6" t="s" s="1491">
         <v>45</v>
       </c>
-      <c r="LA6" t="s" s="1457">
+      <c r="KZ6" t="s" s="1492">
         <v>46</v>
       </c>
-      <c r="LB6" t="s" s="1458">
+      <c r="LA6" t="s" s="1493">
         <v>47</v>
       </c>
-      <c r="LC6" t="s" s="1459">
-        <v>36</v>
-      </c>
-      <c r="LD6" t="s" s="1460">
+      <c r="LB6" t="s" s="1494">
+        <v>48</v>
+      </c>
+      <c r="LC6" t="s" s="1495">
         <v>37</v>
       </c>
-      <c r="LE6" t="s" s="1461">
+      <c r="LD6" t="s" s="1496">
         <v>38</v>
       </c>
-      <c r="LF6" t="s" s="1462">
+      <c r="LE6" t="s" s="1497">
         <v>39</v>
       </c>
-      <c r="LG6" t="s" s="1463">
+      <c r="LF6" t="s" s="1498">
         <v>40</v>
       </c>
-      <c r="LH6" t="s" s="1464">
+      <c r="LG6" t="s" s="1499">
         <v>41</v>
       </c>
-      <c r="LI6" t="s" s="1465">
+      <c r="LH6" t="s" s="1500">
         <v>42</v>
       </c>
-      <c r="LJ6" t="s" s="1466">
+      <c r="LI6" t="s" s="1501">
         <v>43</v>
       </c>
-      <c r="LK6" t="s" s="1467">
+      <c r="LJ6" t="s" s="1502">
         <v>44</v>
       </c>
-      <c r="LL6" t="s" s="1468">
+      <c r="LK6" t="s" s="1503">
         <v>45</v>
       </c>
-      <c r="LM6" t="s" s="1469">
+      <c r="LL6" t="s" s="1504">
         <v>46</v>
       </c>
-      <c r="LN6" t="s" s="1470">
+      <c r="LM6" t="s" s="1505">
         <v>47</v>
       </c>
-      <c r="LO6" t="s" s="1471">
-        <v>36</v>
-      </c>
-      <c r="LP6" t="s" s="1472">
+      <c r="LN6" t="s" s="1506">
+        <v>48</v>
+      </c>
+      <c r="LO6" t="s" s="1507">
         <v>37</v>
       </c>
-      <c r="LQ6" t="s" s="1473">
+      <c r="LP6" t="s" s="1508">
         <v>38</v>
       </c>
-      <c r="LR6" t="s" s="1474">
+      <c r="LQ6" t="s" s="1509">
         <v>39</v>
       </c>
-      <c r="LS6" t="s" s="1475">
+      <c r="LR6" t="s" s="1510">
         <v>40</v>
       </c>
-      <c r="LT6" t="s" s="1476">
+      <c r="LS6" t="s" s="1511">
         <v>41</v>
       </c>
-      <c r="LU6" t="s" s="1477">
+      <c r="LT6" t="s" s="1512">
         <v>42</v>
       </c>
-      <c r="LV6" t="s" s="1478">
+      <c r="LU6" t="s" s="1513">
         <v>43</v>
       </c>
-      <c r="LW6" t="s" s="1479">
+      <c r="LV6" t="s" s="1514">
         <v>44</v>
       </c>
-      <c r="LX6" t="s" s="1480">
+      <c r="LW6" t="s" s="1515">
         <v>45</v>
       </c>
-      <c r="LY6" t="s" s="1481">
+      <c r="LX6" t="s" s="1516">
         <v>46</v>
       </c>
-      <c r="LZ6" t="s" s="1482">
+      <c r="LY6" t="s" s="1517">
         <v>47</v>
       </c>
-      <c r="MA6" t="s" s="1483">
-        <v>36</v>
-      </c>
-      <c r="MB6" t="s" s="1484">
+      <c r="LZ6" t="s" s="1518">
+        <v>48</v>
+      </c>
+      <c r="MA6" t="s" s="1519">
         <v>37</v>
       </c>
-      <c r="MC6" t="s" s="1485">
+      <c r="MB6" t="s" s="1520">
         <v>38</v>
       </c>
-      <c r="MD6" t="s" s="1486">
+      <c r="MC6" t="s" s="1521">
         <v>39</v>
       </c>
-      <c r="ME6" t="s" s="1487">
+      <c r="MD6" t="s" s="1522">
         <v>40</v>
       </c>
-      <c r="MF6" t="s" s="1488">
+      <c r="ME6" t="s" s="1523">
         <v>41</v>
       </c>
-      <c r="MG6" t="s" s="1489">
+      <c r="MF6" t="s" s="1524">
         <v>42</v>
       </c>
-      <c r="MH6" t="s" s="1490">
+      <c r="MG6" t="s" s="1525">
         <v>43</v>
       </c>
-      <c r="MI6" t="s" s="1491">
+      <c r="MH6" t="s" s="1526">
         <v>44</v>
       </c>
-      <c r="MJ6" t="s" s="1492">
+      <c r="MI6" t="s" s="1527">
         <v>45</v>
       </c>
-      <c r="MK6" t="s" s="1493">
+      <c r="MJ6" t="s" s="1528">
         <v>46</v>
       </c>
-      <c r="ML6" t="s" s="1494">
+      <c r="MK6" t="s" s="1529">
         <v>47</v>
       </c>
-      <c r="MM6" t="s" s="1495">
-        <v>36</v>
-      </c>
-      <c r="MN6" t="s" s="1496">
+      <c r="ML6" t="s" s="1530">
+        <v>48</v>
+      </c>
+      <c r="MM6" t="s" s="1531">
         <v>37</v>
       </c>
-      <c r="MO6" t="s" s="1497">
+      <c r="MN6" t="s" s="1532">
         <v>38</v>
       </c>
-      <c r="MP6" t="s" s="1498">
+      <c r="MO6" t="s" s="1533">
         <v>39</v>
       </c>
-      <c r="MQ6" t="s" s="1499">
+      <c r="MP6" t="s" s="1534">
         <v>40</v>
       </c>
-      <c r="MR6" t="s" s="1500">
+      <c r="MQ6" t="s" s="1535">
         <v>41</v>
       </c>
-      <c r="MS6" t="s" s="1501">
+      <c r="MR6" t="s" s="1536">
         <v>42</v>
       </c>
-      <c r="MT6" t="s" s="1502">
+      <c r="MS6" t="s" s="1537">
         <v>43</v>
       </c>
-      <c r="MU6" t="s" s="1503">
+      <c r="MT6" t="s" s="1538">
         <v>44</v>
       </c>
-      <c r="MV6" t="s" s="1504">
+      <c r="MU6" t="s" s="1539">
         <v>45</v>
       </c>
-      <c r="MW6" t="s" s="1505">
+      <c r="MV6" t="s" s="1540">
         <v>46</v>
       </c>
-      <c r="MX6" t="s" s="1506">
+      <c r="MW6" t="s" s="1541">
         <v>47</v>
       </c>
-      <c r="MY6" t="s" s="1507">
-        <v>36</v>
-      </c>
-      <c r="MZ6" t="s" s="1508">
+      <c r="MX6" t="s" s="1542">
+        <v>48</v>
+      </c>
+      <c r="MY6" t="s" s="1543">
         <v>37</v>
       </c>
-      <c r="NA6" t="s" s="1509">
+      <c r="MZ6" t="s" s="1544">
         <v>38</v>
       </c>
-      <c r="NB6" t="s" s="1510">
+      <c r="NA6" t="s" s="1545">
         <v>39</v>
       </c>
-      <c r="NC6" t="s" s="1511">
+      <c r="NB6" t="s" s="1546">
         <v>40</v>
       </c>
-      <c r="ND6" t="s" s="1512">
+      <c r="NC6" t="s" s="1547">
         <v>41</v>
       </c>
-      <c r="NE6" t="s" s="1513">
+      <c r="ND6" t="s" s="1548">
         <v>42</v>
       </c>
-      <c r="NF6" t="s" s="1514">
+      <c r="NE6" t="s" s="1549">
         <v>43</v>
       </c>
-      <c r="NG6" t="s" s="1515">
+      <c r="NF6" t="s" s="1550">
         <v>44</v>
       </c>
-      <c r="NH6" t="s" s="1516">
+      <c r="NG6" t="s" s="1551">
         <v>45</v>
       </c>
-      <c r="NI6" t="s" s="1517">
+      <c r="NH6" t="s" s="1552">
         <v>46</v>
       </c>
-      <c r="NJ6" t="s" s="1518">
+      <c r="NI6" t="s" s="1553">
         <v>47</v>
+      </c>
+      <c r="NJ6" t="s" s="1554">
+        <v>48</v>
+      </c>
+      <c r="NK6" t="s" s="1555">
+        <v>37</v>
+      </c>
+      <c r="NL6" t="s" s="1556">
+        <v>38</v>
+      </c>
+      <c r="NM6" t="s" s="1557">
+        <v>39</v>
+      </c>
+      <c r="NN6" t="s" s="1558">
+        <v>40</v>
+      </c>
+      <c r="NO6" t="s" s="1559">
+        <v>41</v>
+      </c>
+      <c r="NP6" t="s" s="1560">
+        <v>42</v>
+      </c>
+      <c r="NQ6" t="s" s="1561">
+        <v>43</v>
+      </c>
+      <c r="NR6" t="s" s="1562">
+        <v>44</v>
+      </c>
+      <c r="NS6" t="s" s="1563">
+        <v>45</v>
+      </c>
+      <c r="NT6" t="s" s="1564">
+        <v>46</v>
+      </c>
+      <c r="NU6" t="s" s="1565">
+        <v>47</v>
+      </c>
+      <c r="NV6" t="s" s="1566">
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="33.75" customHeight="true">
       <c r="A7" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AL8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AM8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AN8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AR8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AT8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AU8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AV8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AW8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AX8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AY8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BA8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BD8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BE8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BF8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BG8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BH8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BI8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BJ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BK8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BL8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BM8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BN8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BO8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BP8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BQ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BR8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BS8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BT8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BU8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BV8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BW8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BX8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BY8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BZ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CA8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CB8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CC8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CD8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CE8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CF8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CG8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CH8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CI8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CJ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CK8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CL8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CM8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CN8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CO8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CP8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CQ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CR8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CS8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CT8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CU8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CV8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CW8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CX8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CY8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CZ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DA8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DB8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DC8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DD8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DE8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DF8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DG8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DH8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DI8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DJ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DK8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DL8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DM8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DN8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DO8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DP8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DQ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DR8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DS8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DT8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DU8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DV8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DW8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DX8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DY8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DZ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EA8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EB8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EC8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ED8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EE8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EF8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EG8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EH8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EI8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EJ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EK8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EL8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EM8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EN8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EO8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EP8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EQ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ER8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ES8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ET8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EU8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EV8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EW8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EX8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EY8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EZ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FA8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FB8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FC8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FD8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FE8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FF8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FG8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FH8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FI8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FJ8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FK8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FL8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FM8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FN8" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FO8" t="n" s="10">
         <v>91.2</v>
@@ -9556,520 +9801,556 @@
       <c r="NI8" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="NJ8" t="s" s="10">
-        <v>52</v>
+      <c r="NJ8" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="NK8" t="n" s="10">
+        <v>111.1</v>
+      </c>
+      <c r="NL8" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="NM8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NN8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NO8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NP8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NQ8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NR8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NS8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NT8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NU8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NV8" t="s" s="10">
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AL9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AM9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AN9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AR9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AT9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AU9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AV9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AW9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AX9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AY9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BA9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BD9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BE9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BF9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BG9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BH9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BI9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BJ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BK9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BL9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BM9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BN9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BO9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BP9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BQ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BR9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BS9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BT9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BU9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BV9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BW9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BX9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BY9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BZ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CA9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CB9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CC9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CD9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CE9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CF9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CG9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CH9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CI9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CJ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CK9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CL9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CM9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CN9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CO9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CP9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CQ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CR9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CS9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CT9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CU9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CV9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CW9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CX9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CY9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CZ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DA9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DB9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DC9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DD9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DE9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DF9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DG9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DH9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DI9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DJ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DK9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DL9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DM9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DN9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DO9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DP9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DQ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DR9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DS9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DT9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DU9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DV9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DW9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DX9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DY9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DZ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EA9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EB9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EC9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ED9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EE9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EF9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EG9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EH9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EI9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EJ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EK9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EL9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EM9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EN9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EO9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EP9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EQ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ER9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ES9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ET9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EU9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EV9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EW9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EX9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EY9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EZ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FA9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FB9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FC9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FD9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FE9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FF9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FG9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FH9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FI9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FJ9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FK9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FL9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FM9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FN9" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FO9" t="n" s="10">
         <v>83.4</v>
@@ -10680,520 +10961,556 @@
       <c r="NI9" t="n" s="10">
         <v>111.9</v>
       </c>
-      <c r="NJ9" t="s" s="10">
-        <v>52</v>
+      <c r="NJ9" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="NK9" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="NL9" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="NM9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NN9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NO9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NP9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NQ9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NR9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NS9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NT9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NU9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NV9" t="s" s="10">
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AL10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AM10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AN10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AR10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AT10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AU10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AV10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AW10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AX10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AY10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BA10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BD10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BE10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BF10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BG10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BH10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BI10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BJ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BK10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BL10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BM10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BN10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BO10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BP10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BQ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BR10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BS10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BT10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BU10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BV10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BW10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BX10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BY10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BZ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CA10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CB10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CC10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CD10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CE10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CF10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CG10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CH10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CI10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CJ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CK10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CL10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CM10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CN10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CO10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CP10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CQ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CR10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CS10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CT10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CU10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CV10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CW10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CX10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CY10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CZ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DA10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DB10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DC10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DD10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DE10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DF10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DG10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DH10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DI10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DJ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DK10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DL10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DM10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DN10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DO10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DP10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DQ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DR10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DS10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DT10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DU10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DV10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DW10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DX10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DY10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DZ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EA10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EB10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EC10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ED10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EE10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EF10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EG10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EH10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EI10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EJ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EK10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EL10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EM10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EN10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EO10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EP10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EQ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ER10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ES10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ET10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EU10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EV10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EW10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EX10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EY10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EZ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FA10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FB10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FC10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FD10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FE10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FF10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FG10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FH10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FI10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FJ10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FK10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FL10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FM10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FN10" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FO10" t="n" s="10">
         <v>87.5</v>
@@ -11804,520 +12121,556 @@
       <c r="NI10" t="n" s="10">
         <v>107.8</v>
       </c>
-      <c r="NJ10" t="s" s="10">
-        <v>52</v>
+      <c r="NJ10" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="NK10" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="NL10" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="NM10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NN10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NO10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NP10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NQ10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NR10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NS10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NT10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NU10" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NV10" t="s" s="10">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AL11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AM11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AN11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AR11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AT11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AU11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AV11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AW11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AX11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AY11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BA11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BD11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BE11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BF11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BG11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BH11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BI11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BJ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BK11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BL11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BM11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BN11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BO11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BP11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BQ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BR11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BS11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BT11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BU11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BV11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BW11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BX11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BY11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BZ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CA11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CB11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CC11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CD11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CE11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CF11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CG11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CH11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CI11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CJ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CK11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CL11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CM11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CN11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CO11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CP11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CQ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CR11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CS11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CT11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CU11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CV11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CW11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CX11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CY11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CZ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DA11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DB11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DC11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DD11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DE11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DF11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DG11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DH11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DI11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DJ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DK11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DL11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DM11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DN11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DO11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DP11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DQ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DR11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DS11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DT11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DU11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DV11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DW11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DX11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DY11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DZ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EA11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EB11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EC11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ED11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EE11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EF11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EG11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EH11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EI11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EJ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EK11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EL11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EM11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EN11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EO11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EP11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EQ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ER11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ES11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ET11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EU11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EV11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EW11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EX11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EY11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="EZ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FA11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FB11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FC11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FD11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FE11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FF11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FG11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FH11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FI11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FJ11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FK11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FL11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FM11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FN11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FO11" t="n" s="10">
         <v>100.0</v>
@@ -12928,55 +13281,91 @@
       <c r="NI11" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="NJ11" t="s" s="10">
-        <v>52</v>
+      <c r="NJ11" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="NK11" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="NL11" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="NM11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NN11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NO11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NP11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NQ11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NR11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NS11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NT11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NU11" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="NV11" t="s" s="10">
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:NJ2"/>
-    <mergeCell ref="A3:NJ3"/>
-    <mergeCell ref="A4:NJ4"/>
+    <mergeCell ref="A2:NV2"/>
+    <mergeCell ref="A3:NV3"/>
+    <mergeCell ref="A4:NV4"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="O5:Z5"/>
@@ -13009,12 +13398,13 @@
     <mergeCell ref="MA5:ML5"/>
     <mergeCell ref="MM5:MX5"/>
     <mergeCell ref="MY5:NJ5"/>
-    <mergeCell ref="A7:NJ7"/>
-    <mergeCell ref="A1:NJ1"/>
+    <mergeCell ref="NK5:NV5"/>
+    <mergeCell ref="A7:NV7"/>
+    <mergeCell ref="A1:NV1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:17:13&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:54:07&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>